--- a/Teil_59_Excel/Prio_Honk.xlsx
+++ b/Teil_59_Excel/Prio_Honk.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve">Themen</t>
   </si>
@@ -31,34 +31,28 @@
     <t xml:space="preserve">Punkte</t>
   </si>
   <si>
+    <t xml:space="preserve">a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e</t>
+  </si>
+  <si>
     <t xml:space="preserve">f</t>
   </si>
   <si>
-    <t xml:space="preserve">a</t>
+    <t xml:space="preserve">g</t>
   </si>
   <si>
     <t xml:space="preserve">h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unwichtig</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">g</t>
   </si>
 </sst>
 </file>
@@ -166,10 +160,10 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -184,63 +178,53 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="n">
-        <v>2</v>
-      </c>
+      <c r="B3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="n">
-        <v>2</v>
-      </c>
+      <c r="B4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="B5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>5</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>9</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
